--- a/data/categorial_size_experiment/results/B_1000_cs results non archi.xlsx
+++ b/data/categorial_size_experiment/results/B_1000_cs results non archi.xlsx
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.439</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -398,103 +398,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.4076</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5598</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2064</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5599</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00760000000000005</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2092</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.419</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.549</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.196</v>
+        <v>0.606</v>
       </c>
     </row>
   </sheetData>
